--- a/TestCase/hes-api.xlsx
+++ b/TestCase/hes-api.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\Documents\GitHub\exceltest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiannancao\Documents\GitHub\exceltest\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1200,9 +1200,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1231,6 +1228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12701,35 +12701,35 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="41.1796875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="137.36328125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.54296875" style="30" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" style="30" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.36328125" style="30" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" style="30" customWidth="1"/>
-    <col min="18" max="18" width="12.6328125" style="30" customWidth="1"/>
-    <col min="19" max="19" width="4.90625" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.81640625" style="30"/>
+    <col min="1" max="1" width="4.36328125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="41.1796875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="137.36328125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.54296875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="29" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.36328125" style="29" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="29" customWidth="1"/>
+    <col min="18" max="18" width="12.6328125" style="29" customWidth="1"/>
+    <col min="19" max="19" width="4.90625" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.81640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="28" customFormat="1" ht="34.049999999999997" customHeight="1">
@@ -12763,10 +12763,10 @@
       <c r="J1" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="31" t="s">
         <v>136</v>
       </c>
       <c r="M1" s="28" t="s">
@@ -12775,7 +12775,7 @@
       <c r="N1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>139</v>
       </c>
       <c r="P1" s="28" t="s">
@@ -12784,729 +12784,729 @@
       <c r="Q1" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="31" t="s">
         <v>142</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="39" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="29">
         <v>200</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>200</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="33"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>200</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O4" s="33"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>200</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O5" s="33"/>
+      <c r="O5" s="32"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>200</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="33"/>
+      <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>200</v>
       </c>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O7" s="33"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>200</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>200</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O9" s="33"/>
+      <c r="O9" s="32"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>200</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="32"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>200</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>200</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>200</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>200</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>200</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="33"/>
+      <c r="O15" s="32"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>200</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>200</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>200</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>200</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="29" t="s">
         <v>203</v>
       </c>
     </row>
@@ -13636,28 +13636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="25.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
